--- a/document/api/육아일기_api.xlsx
+++ b/document/api/육아일기_api.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,56 +146,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date_time:datetime
-subject:string
-diary:string
+    <t>diary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diary/load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diary/update_load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 육아일기 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/story/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_time은 시분초까지 넘겨주는 포맷이다. (ex. 2018-03-02 23:03:04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string 
+date_time:datetime
+code:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string
+code:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story:string
 *json 배열로 보내짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diary/load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diary/update_load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 육아일기 불러오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_time:datetime
-subject:string
-*json 배열로 보내짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/story/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_time은 시분초까지 넘겨주는 포맷이다. (ex. 2018-03-02 23:03:04)</t>
+    <t>수정할 스토리 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string
+idx:int
+story:string
+code:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string
+idx:int
+code:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string
+idx:int
+story:string
+code:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,59 +234,23 @@
 date_time:datetime
 subject:string
 diary:string
-code:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_name:string 
-date_time:datetime
-code:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_name:string 
-date_time:datetime
+code:int
+userfile:file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_time:datetime
 subject:string
 diary:string
-code:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_name:string
-code:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>story:string
+[{img_path:string}]
 *json 배열로 보내짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정할 스토리 불러오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_name:string
-idx:int
-story:string
-code:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_name:string
-idx:int
-code:int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baby_name:string
-idx:int
-story:string
-code:int</t>
+    <t>date_time:datetime
+subject:string
+img_path:string
+*json 배열로 보내짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -689,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -703,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>201</v>
@@ -712,7 +707,7 @@
         <v>404</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
@@ -729,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>201</v>
@@ -738,7 +733,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -752,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4">
@@ -762,7 +757,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -770,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -779,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>201</v>
@@ -788,24 +783,24 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>201</v>
@@ -825,10 +820,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>201</v>
@@ -845,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -854,10 +849,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>201</v>
@@ -868,19 +863,19 @@
     </row>
     <row r="9" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>201</v>
